--- a/cbrunner/Parameters/LabelYAxis.xlsx
+++ b/cbrunner/Parameters/LabelYAxis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhember\Documents\Code_Python\fcgadgets\cbrunner\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160BCB6-96F0-4F7E-8FF9-E92DF4EAFF85}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DAB35D-BD32-408F-A067-946A2EC14018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{9C901F25-DB21-4923-9CB2-77F4E50575F9}"/>
+    <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{9C901F25-DB21-4923-9CB2-77F4E50575F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="335">
   <si>
     <t>Name</t>
   </si>
@@ -699,12 +699,6 @@
     <t>Harvested residual volume (Billion m3/yr)</t>
   </si>
   <si>
-    <t>DM_Production_Sawnwood</t>
-  </si>
-  <si>
-    <t>DM_Production_Panels</t>
-  </si>
-  <si>
     <t>Sawnwood production (Mt/yr)</t>
   </si>
   <si>
@@ -723,9 +717,6 @@
     <t>Panel production (t/ha/yr)</t>
   </si>
   <si>
-    <t>DM_Buildings_Tot</t>
-  </si>
-  <si>
     <t>Building wood stock (t/ha)</t>
   </si>
   <si>
@@ -744,18 +735,6 @@
     <t>Cumul. AGHGB (MtCO2e/yr)</t>
   </si>
   <si>
-    <t>Production Concrete</t>
-  </si>
-  <si>
-    <t>Production Steel</t>
-  </si>
-  <si>
-    <t>Production Aluminum</t>
-  </si>
-  <si>
-    <t>Production Plastic</t>
-  </si>
-  <si>
     <t>Concrete production (t/yr)</t>
   </si>
   <si>
@@ -858,10 +837,208 @@
     <t>E_CO2e_NRBM</t>
   </si>
   <si>
-    <t>C_Forest</t>
-  </si>
-  <si>
-    <t>C_HWP</t>
+    <t>Lumber (000 bd ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Plywood (000 sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>OSB (000 sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>MDF (000 sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Paper (t/ha/yr)</t>
+  </si>
+  <si>
+    <t>Pellets (t/ha/yr)</t>
+  </si>
+  <si>
+    <t>Power sales (MWh/ha/yr)</t>
+  </si>
+  <si>
+    <t>Power facility (MWh/ha/yr)</t>
+  </si>
+  <si>
+    <t>Firewood domestric (t/ha/yr)</t>
+  </si>
+  <si>
+    <t>Log exports (m3/ha/yr)</t>
+  </si>
+  <si>
+    <t>Log exports (Million m3/yr)</t>
+  </si>
+  <si>
+    <t>Firewood domestric (Mt/yr)</t>
+  </si>
+  <si>
+    <t>Power facility (TWh/yr)</t>
+  </si>
+  <si>
+    <t>Power sales (TWh/yr)</t>
+  </si>
+  <si>
+    <t>Paper (Mt/yr)</t>
+  </si>
+  <si>
+    <t>Lumber (Billion bd ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Plywood (Billian sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>OSB (Billion sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>MDF (Billion sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Lumber (Trillion bd ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Plywood (Trillian sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>OSB (Trillion sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>MDF (Trillion sq ft/ha/yr)</t>
+  </si>
+  <si>
+    <t>Paper (Gt/yr)</t>
+  </si>
+  <si>
+    <t>Power sales (PWh/yr)</t>
+  </si>
+  <si>
+    <t>Power facility (PWh/yr)</t>
+  </si>
+  <si>
+    <t>Firewood domestric (Gt/yr)</t>
+  </si>
+  <si>
+    <t>Log exports (Billion m3/yr)</t>
+  </si>
+  <si>
+    <t>Pellets (PWh/yr)</t>
+  </si>
+  <si>
+    <t>Pellets (TWh/yr)</t>
+  </si>
+  <si>
+    <t>C_Buildings_Tot</t>
+  </si>
+  <si>
+    <t>C_NonBuildings_Tot</t>
+  </si>
+  <si>
+    <t>Non-building wood stock (t/ha)</t>
+  </si>
+  <si>
+    <t>Non-building wood stock (Mt)</t>
+  </si>
+  <si>
+    <t>Non-building wood stock (Gt)</t>
+  </si>
+  <si>
+    <t>C_Forest_Tot</t>
+  </si>
+  <si>
+    <t>C_HWP_Tot</t>
+  </si>
+  <si>
+    <t>Yield Sawnwood</t>
+  </si>
+  <si>
+    <t>Yield Panels</t>
+  </si>
+  <si>
+    <t>Yield Concrete</t>
+  </si>
+  <si>
+    <t>Yield Steel</t>
+  </si>
+  <si>
+    <t>Yield Aluminum</t>
+  </si>
+  <si>
+    <t>Yield Plastic</t>
+  </si>
+  <si>
+    <t>E_CO2e_OPER</t>
+  </si>
+  <si>
+    <t>Operations (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>Operations (MtCO2e/yr)</t>
+  </si>
+  <si>
+    <t>Operations (GtCO2e/yr)</t>
+  </si>
+  <si>
+    <t>E_CO2e_ESC_Bioenergy</t>
+  </si>
+  <si>
+    <t>Bioenergy emissions (MtCO2e/yr)</t>
+  </si>
+  <si>
+    <t>Bioenergy emissions (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>Bioenergy emissions (GtCO2e/yr)</t>
+  </si>
+  <si>
+    <t>Snag harvest (tC/ha/yr)</t>
+  </si>
+  <si>
+    <t>Snag harvest (MtC/yr)</t>
+  </si>
+  <si>
+    <t>Snag harvest (GtC/yr)</t>
+  </si>
+  <si>
+    <t>Merchantable harvest (GtC/yr)</t>
+  </si>
+  <si>
+    <t>Non-merch. harvest (GtC/yr)</t>
+  </si>
+  <si>
+    <t>Merchantable harvest (MtC/yr)</t>
+  </si>
+  <si>
+    <t>Non-merch. harvest (MtC/yr)</t>
+  </si>
+  <si>
+    <t>Merchantable harvest (tC/ha/yr)</t>
+  </si>
+  <si>
+    <t>Non-merch. harvest (tC/ha/yr)</t>
+  </si>
+  <si>
+    <t>Domestic power facility transfer (tC/ha/yr)</t>
+  </si>
+  <si>
+    <t>Domestic power facility transfer (MtC/yr)</t>
+  </si>
+  <si>
+    <t>Domestic power facility transfer (GtC/yr)</t>
+  </si>
+  <si>
+    <t>Energy substitution (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>Material substitution (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>Stationary combustion emissions (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>Transportation emissions (tCO2e/ha/yr)</t>
+  </si>
+  <si>
+    <t>IPPU emissions (tCO2e/ha/yr)</t>
   </si>
 </sst>
 </file>
@@ -1222,16 +1399,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1ED877-EC8B-4394-8F4C-A58F1E670000}">
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="504" topLeftCell="A31" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
     <col min="3" max="3" width="48.109375" customWidth="1"/>
     <col min="4" max="4" width="49.109375" customWidth="1"/>
   </cols>
@@ -1406,49 +1584,49 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B13" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
         <v>229</v>
-      </c>
-      <c r="B13" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" t="s">
-        <v>231</v>
-      </c>
-      <c r="D13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>299</v>
       </c>
       <c r="C14" t="s">
-        <v>142</v>
+        <v>300</v>
       </c>
       <c r="D14" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>60</v>
@@ -1462,7 +1640,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -1476,7 +1654,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -1490,7 +1668,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -1504,7 +1682,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -1518,7 +1696,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -1532,63 +1710,63 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>325</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>323</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>326</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>322</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>318</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>319</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>60</v>
@@ -1602,7 +1780,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>60</v>
@@ -1616,7 +1794,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
@@ -1630,7 +1808,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -1644,7 +1822,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
@@ -1658,21 +1836,21 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>327</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>328</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
         <v>60</v>
@@ -1686,7 +1864,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" t="s">
         <v>60</v>
@@ -1700,7 +1878,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
         <v>60</v>
@@ -1714,7 +1892,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
@@ -1728,7 +1906,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -1742,164 +1920,164 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="C38" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>145</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>60</v>
+        <v>332</v>
       </c>
       <c r="C43" t="s">
-        <v>207</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" t="s">
-        <v>60</v>
+        <v>331</v>
       </c>
       <c r="C45" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>315</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>333</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>334</v>
       </c>
       <c r="C48" t="s">
         <v>60</v>
@@ -1910,63 +2088,63 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>312</v>
       </c>
       <c r="D49" t="s">
-        <v>60</v>
+        <v>313</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C50" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="D50" t="s">
-        <v>60</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>225</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="D52" t="s">
-        <v>226</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="B53" t="s">
         <v>60</v>
@@ -1980,21 +2158,21 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55" t="s">
         <v>65</v>
@@ -2003,250 +2181,250 @@
         <v>148</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="D56" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D57" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D58" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C59" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>231</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>232</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>267</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>286</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>268</v>
       </c>
       <c r="C62" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>269</v>
       </c>
       <c r="C63" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
       <c r="C64" t="s">
-        <v>60</v>
+        <v>285</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>289</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>271</v>
       </c>
       <c r="C65" t="s">
-        <v>60</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>272</v>
       </c>
       <c r="C66" t="s">
-        <v>60</v>
+        <v>296</v>
       </c>
       <c r="D66" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>291</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>60</v>
+        <v>274</v>
       </c>
       <c r="C68" t="s">
-        <v>60</v>
+        <v>279</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>60</v>
+        <v>275</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>293</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>276</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>60</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
-        <v>60</v>
+        <v>223</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>305</v>
       </c>
       <c r="B72" t="s">
-        <v>60</v>
+        <v>226</v>
       </c>
       <c r="C72" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>60</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B73" t="s">
         <v>60</v>
@@ -2260,7 +2438,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>60</v>
@@ -2274,7 +2452,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>60</v>
@@ -2288,7 +2466,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
         <v>60</v>
@@ -2302,7 +2480,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B77" t="s">
         <v>60</v>
@@ -2316,7 +2494,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
@@ -2330,7 +2508,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B79" t="s">
         <v>60</v>
@@ -2344,7 +2522,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B80" t="s">
         <v>60</v>
@@ -2358,7 +2536,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -2372,7 +2550,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B82" t="s">
         <v>60</v>
@@ -2386,7 +2564,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
@@ -2400,7 +2578,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="B84" t="s">
         <v>60</v>
@@ -2414,7 +2592,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B85" t="s">
         <v>60</v>
@@ -2428,7 +2606,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B86" t="s">
         <v>60</v>
@@ -2442,7 +2620,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
         <v>60</v>
@@ -2456,7 +2634,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
         <v>60</v>
@@ -2470,7 +2648,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B89" t="s">
         <v>60</v>
@@ -2484,7 +2662,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B90" t="s">
         <v>60</v>
@@ -2498,7 +2676,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B91" t="s">
         <v>60</v>
@@ -2512,7 +2690,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
         <v>60</v>
@@ -2526,7 +2704,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B93" t="s">
         <v>60</v>
@@ -2540,7 +2718,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B94" t="s">
         <v>60</v>
@@ -2554,21 +2732,21 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B95" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="D95" t="s">
-        <v>192</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
         <v>60</v>
@@ -2582,7 +2760,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
         <v>60</v>
@@ -2596,21 +2774,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="B98" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="C98" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="D98" t="s">
-        <v>60</v>
+        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B99" t="s">
         <v>60</v>
@@ -2624,7 +2802,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B100" t="s">
         <v>60</v>
@@ -2638,7 +2816,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B101" t="s">
         <v>60</v>
@@ -2652,7 +2830,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
         <v>60</v>
@@ -2666,7 +2844,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
         <v>60</v>
@@ -2680,7 +2858,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B104" t="s">
         <v>60</v>
@@ -2694,7 +2872,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B105" t="s">
         <v>60</v>
@@ -2708,49 +2886,49 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="C106" t="s">
-        <v>168</v>
+        <v>60</v>
       </c>
       <c r="D106" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B107" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="D107" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="D108" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
         <v>127</v>
@@ -2764,282 +2942,324 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C110" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D110" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C111" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C112" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D112" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="B113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C113" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D113" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>122</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="C114" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D114" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C115" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D115" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="B116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D117" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D118" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B120" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="C120" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>237</v>
+        <v>117</v>
       </c>
       <c r="B122" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="C122" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="D122" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
       <c r="B123" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="D123" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>239</v>
+        <v>306</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D124" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="B125" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C125" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="D125" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B126" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C127" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="D127" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C128" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D128" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B129" t="s">
+        <v>248</v>
+      </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
+      <c r="D129" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
         <v>264</v>
       </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C130" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
         <v>265</v>
       </c>
-      <c r="D129" t="s">
+      <c r="B131" t="s">
+        <v>254</v>
+      </c>
+      <c r="C131" t="s">
+        <v>255</v>
+      </c>
+      <c r="D131" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
         <v>266</v>
+      </c>
+      <c r="B132" t="s">
+        <v>257</v>
+      </c>
+      <c r="C132" t="s">
+        <v>258</v>
+      </c>
+      <c r="D132" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
